--- a/Паспорт вуличного освітлення/Покази ліч. вуличного осв..xlsx
+++ b/Паспорт вуличного освітлення/Покази ліч. вуличного осв..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20745" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20748" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Рапорт" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <definedName name="Zone" localSheetId="0">Рапорт!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -46,12 +45,6 @@
     <t>Зона</t>
   </si>
   <si>
-    <t>Попередні покази</t>
-  </si>
-  <si>
-    <t>Поточні покази</t>
-  </si>
-  <si>
     <t>Розхід</t>
   </si>
   <si>
@@ -182,6 +175,12 @@
   </si>
   <si>
     <t>27.10.2022 р.</t>
+  </si>
+  <si>
+    <t>Попер. пок.</t>
+  </si>
+  <si>
+    <t>Пот. пок.</t>
   </si>
 </sst>
 </file>
@@ -308,9 +307,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,12 +318,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,6 +334,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -629,40 +628,40 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A5" sqref="A5:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.44140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="6.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4"/>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="17"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -670,17 +669,17 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11"/>
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="E2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="16"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -688,7 +687,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,504 +701,504 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:22" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
         <v>433</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>433</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f t="shared" ref="G5:G23" si="0">F5-E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2180</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2180</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>425</v>
+      </c>
+      <c r="F7" s="6">
+        <v>425</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>486</v>
+      </c>
+      <c r="F8" s="6">
+        <v>486</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E9" s="5">
+        <v>1602</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1622</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6">
-        <v>2180</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2180</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
-        <v>425</v>
-      </c>
-      <c r="F7" s="7">
-        <v>425</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6">
-        <v>486</v>
-      </c>
-      <c r="F8" s="7">
-        <v>486</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1602</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1622</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>612</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>626</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6">
+    <row r="11" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
         <v>295</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>414</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f>F11-E11</f>
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3032</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3074</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>23594</v>
+      </c>
+      <c r="F13" s="6">
+        <v>23674</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3852</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3885</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>451</v>
+      </c>
+      <c r="F15" s="6">
+        <v>701</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5">
+        <v>683</v>
+      </c>
+      <c r="F16" s="6">
+        <v>703</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2604</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2667</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="6">
-        <v>3032</v>
-      </c>
-      <c r="F12" s="7">
-        <v>3074</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="E18" s="5">
+        <v>911</v>
+      </c>
+      <c r="F18" s="6">
+        <v>948</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5">
+        <v>171</v>
+      </c>
+      <c r="F19" s="6">
+        <v>176</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5">
+        <v>625</v>
+      </c>
+      <c r="F20" s="6">
+        <v>638</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6">
-        <v>23594</v>
-      </c>
-      <c r="F13" s="7">
-        <v>23674</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3852</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3885</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6">
-        <v>451</v>
-      </c>
-      <c r="F15" s="7">
-        <v>701</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5">
+        <v>208</v>
+      </c>
+      <c r="F21" s="6">
+        <v>213</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="6">
-        <v>683</v>
-      </c>
-      <c r="F16" s="7">
-        <v>703</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2604</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2667</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="6">
-        <v>911</v>
-      </c>
-      <c r="F18" s="7">
-        <v>948</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1746</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1854</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="6">
-        <v>171</v>
-      </c>
-      <c r="F19" s="7">
-        <v>176</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
+      <c r="D23" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6">
-        <v>625</v>
-      </c>
-      <c r="F20" s="7">
-        <v>638</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="6">
-        <v>208</v>
-      </c>
-      <c r="F21" s="7">
-        <v>213</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1746</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1854</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>19911</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>20106</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1211,6 +1210,6 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Паспорт вуличного освітлення/Покази ліч. вуличного осв..xlsx
+++ b/Паспорт вуличного освітлення/Покази ліч. вуличного осв..xlsx
@@ -4,34 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20748" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20748" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Рапорт" sheetId="1" r:id="rId1"/>
+    <sheet name="Жовтень" sheetId="1" r:id="rId1"/>
+    <sheet name="Листопад" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Рапорт!$A$4:$G$4</definedName>
-    <definedName name="AccountingTreatment" localSheetId="0">Рапорт!#REF!</definedName>
-    <definedName name="CoefTransform" localSheetId="0">Рапорт!#REF!</definedName>
-    <definedName name="ContractNumber">Рапорт!#REF!</definedName>
-    <definedName name="ContractorName">Рапорт!$C$1</definedName>
-    <definedName name="CurrentValue" localSheetId="0">Рапорт!#REF!</definedName>
-    <definedName name="EnergyKindName" localSheetId="0">Рапорт!#REF!</definedName>
-    <definedName name="ObjectName" localSheetId="0">Рапорт!#REF!</definedName>
-    <definedName name="Period">Рапорт!$D$2</definedName>
-    <definedName name="PeriodFrom" localSheetId="0">Рапорт!#REF!</definedName>
-    <definedName name="PeriodTo" localSheetId="0">Рапорт!#REF!</definedName>
-    <definedName name="PointName" localSheetId="0">Рапорт!#REF!</definedName>
-    <definedName name="PreviousValue" localSheetId="0">Рапорт!#REF!</definedName>
-    <definedName name="TotalValue" localSheetId="0">Рапорт!#REF!</definedName>
-    <definedName name="Zone" localSheetId="0">Рапорт!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Жовтень!$A$4:$G$4</definedName>
+    <definedName name="AccountingTreatment" localSheetId="0">Жовтень!#REF!</definedName>
+    <definedName name="CoefTransform" localSheetId="0">Жовтень!#REF!</definedName>
+    <definedName name="ContractNumber">Жовтень!#REF!</definedName>
+    <definedName name="ContractorName">Жовтень!$C$1</definedName>
+    <definedName name="CurrentValue" localSheetId="0">Жовтень!#REF!</definedName>
+    <definedName name="EnergyKindName" localSheetId="0">Жовтень!#REF!</definedName>
+    <definedName name="ObjectName" localSheetId="0">Жовтень!#REF!</definedName>
+    <definedName name="Period">Жовтень!$D$2</definedName>
+    <definedName name="PeriodFrom" localSheetId="0">Жовтень!#REF!</definedName>
+    <definedName name="PeriodTo" localSheetId="0">Жовтень!#REF!</definedName>
+    <definedName name="PointName" localSheetId="0">Жовтень!#REF!</definedName>
+    <definedName name="PreviousValue" localSheetId="0">Жовтень!#REF!</definedName>
+    <definedName name="TotalValue" localSheetId="0">Жовтень!#REF!</definedName>
+    <definedName name="Zone" localSheetId="0">Жовтень!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
   <si>
     <t>Назва об'єкту</t>
   </si>
@@ -181,6 +182,12 @@
   </si>
   <si>
     <t>Пот. пок.</t>
+  </si>
+  <si>
+    <t>Покази за жовтень 2022 р</t>
+  </si>
+  <si>
+    <t>28.11.2022 р.</t>
   </si>
 </sst>
 </file>
@@ -254,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -292,11 +299,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,10 +415,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,10 +754,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="C1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="17"/>
+      <c r="C1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="22"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -670,16 +766,16 @@
       <c r="V1"/>
     </row>
     <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="8"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="21"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -1212,4 +1308,567 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="16">
+        <v>433</v>
+      </c>
+      <c r="F5" s="23">
+        <v>438</v>
+      </c>
+      <c r="G5" s="17">
+        <f>F5-E5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2180</v>
+      </c>
+      <c r="F6" s="24">
+        <v>2180</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G23" si="0">F6-E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="16">
+        <v>425</v>
+      </c>
+      <c r="F7" s="24">
+        <v>437</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="16">
+        <v>486</v>
+      </c>
+      <c r="F8" s="24">
+        <v>486</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1622</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1627</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="16">
+        <v>626</v>
+      </c>
+      <c r="F10" s="24">
+        <v>639</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>414</v>
+      </c>
+      <c r="F11" s="24">
+        <v>482</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="16">
+        <v>3074</v>
+      </c>
+      <c r="F12" s="24">
+        <v>3100</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="16">
+        <v>23674</v>
+      </c>
+      <c r="F13" s="24">
+        <v>23698</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3885</v>
+      </c>
+      <c r="F14" s="24">
+        <v>3935</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16">
+        <v>701</v>
+      </c>
+      <c r="F15" s="24">
+        <v>834</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="16">
+        <v>703</v>
+      </c>
+      <c r="F16" s="24">
+        <v>718</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="16">
+        <v>2667</v>
+      </c>
+      <c r="F17" s="24">
+        <v>2671</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="16">
+        <v>948</v>
+      </c>
+      <c r="F18" s="24">
+        <v>989</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="16">
+        <v>176</v>
+      </c>
+      <c r="F19" s="24">
+        <v>180</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="16">
+        <v>638</v>
+      </c>
+      <c r="F20" s="24">
+        <v>641</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="16">
+        <v>213</v>
+      </c>
+      <c r="F21" s="24">
+        <v>225</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1854</v>
+      </c>
+      <c r="F22" s="24">
+        <v>2029</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="16">
+        <v>20106</v>
+      </c>
+      <c r="F23" s="24">
+        <v>20226</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Паспорт вуличного освітлення/Покази ліч. вуличного осв..xlsx
+++ b/Паспорт вуличного освітлення/Покази ліч. вуличного осв..xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20748" windowHeight="8760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20748" windowHeight="8760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Жовтень" sheetId="1" r:id="rId1"/>
     <sheet name="Листопад" sheetId="2" r:id="rId2"/>
+    <sheet name="Грудень" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Жовтень!$A$4:$G$4</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="54">
   <si>
     <t>Назва об'єкту</t>
   </si>
@@ -188,6 +189,12 @@
   </si>
   <si>
     <t>28.11.2022 р.</t>
+  </si>
+  <si>
+    <t>28.12.2022 р.</t>
+  </si>
+  <si>
+    <t>Покази за грудень 2022 р</t>
   </si>
 </sst>
 </file>
@@ -261,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -368,11 +375,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,18 +464,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -713,7 +761,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -754,10 +802,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="27"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -766,16 +814,16 @@
       <c r="V1"/>
     </row>
     <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="8"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="26"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -1314,38 +1362,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="15"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1386,7 +1434,7 @@
       <c r="E5" s="16">
         <v>433</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>438</v>
       </c>
       <c r="G5" s="17">
@@ -1410,7 +1458,7 @@
       <c r="E6" s="16">
         <v>2180</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <v>2180</v>
       </c>
       <c r="G6" s="17">
@@ -1434,7 +1482,7 @@
       <c r="E7" s="16">
         <v>425</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <v>437</v>
       </c>
       <c r="G7" s="17">
@@ -1458,7 +1506,7 @@
       <c r="E8" s="16">
         <v>486</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <v>486</v>
       </c>
       <c r="G8" s="17">
@@ -1482,7 +1530,7 @@
       <c r="E9" s="16">
         <v>1622</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <v>1627</v>
       </c>
       <c r="G9" s="17">
@@ -1506,7 +1554,7 @@
       <c r="E10" s="16">
         <v>626</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>639</v>
       </c>
       <c r="G10" s="17">
@@ -1530,7 +1578,7 @@
       <c r="E11" s="16">
         <v>414</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <v>482</v>
       </c>
       <c r="G11" s="17">
@@ -1555,7 +1603,7 @@
       <c r="E12" s="16">
         <v>3074</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>3100</v>
       </c>
       <c r="G12" s="17">
@@ -1579,7 +1627,7 @@
       <c r="E13" s="16">
         <v>23674</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>23698</v>
       </c>
       <c r="G13" s="17">
@@ -1603,7 +1651,7 @@
       <c r="E14" s="16">
         <v>3885</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>3935</v>
       </c>
       <c r="G14" s="17">
@@ -1627,7 +1675,7 @@
       <c r="E15" s="16">
         <v>701</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22">
         <v>834</v>
       </c>
       <c r="G15" s="17">
@@ -1651,7 +1699,7 @@
       <c r="E16" s="16">
         <v>703</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>718</v>
       </c>
       <c r="G16" s="17">
@@ -1675,7 +1723,7 @@
       <c r="E17" s="16">
         <v>2667</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <v>2671</v>
       </c>
       <c r="G17" s="17">
@@ -1699,7 +1747,7 @@
       <c r="E18" s="16">
         <v>948</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <v>989</v>
       </c>
       <c r="G18" s="17">
@@ -1723,7 +1771,7 @@
       <c r="E19" s="16">
         <v>176</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <v>180</v>
       </c>
       <c r="G19" s="17">
@@ -1747,7 +1795,7 @@
       <c r="E20" s="16">
         <v>638</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <v>641</v>
       </c>
       <c r="G20" s="17">
@@ -1771,7 +1819,7 @@
       <c r="E21" s="16">
         <v>213</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="22">
         <v>225</v>
       </c>
       <c r="G21" s="17">
@@ -1795,7 +1843,7 @@
       <c r="E22" s="16">
         <v>1854</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="22">
         <v>2029</v>
       </c>
       <c r="G22" s="17">
@@ -1819,7 +1867,7 @@
       <c r="E23" s="16">
         <v>20106</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="22">
         <v>20226</v>
       </c>
       <c r="G23" s="17">
@@ -1846,6 +1894,568 @@
       </c>
       <c r="F26" s="14" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="C1" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21">
+        <v>438</v>
+      </c>
+      <c r="F5" s="21">
+        <v>440</v>
+      </c>
+      <c r="G5" s="28">
+        <f>F5-E5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2180</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2180</v>
+      </c>
+      <c r="G6" s="24">
+        <f t="shared" ref="G6:G23" si="0">F6-E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="22">
+        <v>437</v>
+      </c>
+      <c r="F7" s="22">
+        <v>443</v>
+      </c>
+      <c r="G7" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="22">
+        <v>486</v>
+      </c>
+      <c r="F8" s="22">
+        <v>486</v>
+      </c>
+      <c r="G8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1627</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1630</v>
+      </c>
+      <c r="G9" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="22">
+        <v>639</v>
+      </c>
+      <c r="F10" s="22">
+        <v>645</v>
+      </c>
+      <c r="G10" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="22">
+        <v>482</v>
+      </c>
+      <c r="F11" s="22">
+        <v>516</v>
+      </c>
+      <c r="G11" s="24">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3100</v>
+      </c>
+      <c r="F12" s="22">
+        <v>3113</v>
+      </c>
+      <c r="G12" s="24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="22">
+        <v>23698</v>
+      </c>
+      <c r="F13" s="22">
+        <v>23710</v>
+      </c>
+      <c r="G13" s="24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3935</v>
+      </c>
+      <c r="F14" s="22">
+        <v>3960</v>
+      </c>
+      <c r="G14" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="22">
+        <v>834</v>
+      </c>
+      <c r="F15" s="22">
+        <v>899</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="22">
+        <v>718</v>
+      </c>
+      <c r="F16" s="22">
+        <v>724</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="22">
+        <v>2671</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2673</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="22">
+        <v>989</v>
+      </c>
+      <c r="F18" s="22">
+        <v>1009</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="22">
+        <v>180</v>
+      </c>
+      <c r="F19" s="22">
+        <v>182</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="22">
+        <v>641</v>
+      </c>
+      <c r="F20" s="22">
+        <v>643</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="22">
+        <v>225</v>
+      </c>
+      <c r="F21" s="22">
+        <v>231</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="22">
+        <v>2029</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2116</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="22">
+        <v>20226</v>
+      </c>
+      <c r="F23" s="22">
+        <v>20286</v>
+      </c>
+      <c r="G23" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
